--- a/aimms_model/energy_hub/results/NetMetering/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/NetMetering/results_capacities.xlsx
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Elec</t>
   </si>
   <si>
     <t>Heat</t>
-  </si>
-  <si>
-    <t>Electric_boiler</t>
   </si>
   <si>
     <t>Gas_CHP</t>
@@ -390,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -415,19 +412,16 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -436,16 +430,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -456,18 +447,15 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>1</v>
       </c>
     </row>
@@ -478,13 +466,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -503,19 +491,16 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>22.15011922104868</v>
       </c>
       <c r="C2">
-        <v>2.9479768786127161</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -524,27 +509,24 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.7122023568540703</v>
+        <v>38.319706252414221</v>
       </c>
       <c r="C3">
-        <v>5.0999999999999996</v>
+        <v>545.08100032685832</v>
       </c>
       <c r="D3">
-        <v>45.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -553,9 +535,6 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -574,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -582,15 +561,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>101.9421710154577</v>
+        <v>897.60282631709015</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>100000</v>
@@ -611,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -619,7 +598,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -627,7 +606,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/aimms_model/energy_hub/results/NetMetering/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/NetMetering/results_capacities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Installation" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.15011922104868</v>
+        <v>110.75059610524333</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.319706252414221</v>
+        <v>191.59853126207099</v>
       </c>
       <c r="C3">
-        <v>545.08100032685832</v>
+        <v>2725.4050016342908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>897.60282631709015</v>
+        <v>4488.0141315854471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/aimms_model/energy_hub/results/NetMetering/results_capacities.xlsx
+++ b/aimms_model/energy_hub/results/NetMetering/results_capacities.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>110.75059610524333</v>
+        <v>185.70596374874452</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>191.59853126207099</v>
+        <v>321.27131728532805</v>
       </c>
       <c r="C3">
-        <v>2725.4050016342908</v>
+        <v>2389.1138783739557</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4488.0141315854471</v>
+        <v>6841.5407826371347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
